--- a/Financial Analysis/EQUITIES/FB.xlsx
+++ b/Financial Analysis/EQUITIES/FB.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/zxt18_ic_ac_uk/Documents/Financial Analysis/EQUITIES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35554AA7-9500-4118-9295-2B53DD25A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{35554AA7-9500-4118-9295-2B53DD25A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E00C1D-A352-4D88-B78B-5353A3F96140}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -71,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,8 +560,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -618,21 +619,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4815375920678820904</stp>
-        <tr r="A8" s="2"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,16 +944,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -983,7 +971,7 @@
         <v>41060</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -991,7 +979,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -999,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <f>_xll.BDH(B1,B7:C7,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=3;rows=117")</f>
         <v>44592</v>
@@ -1030,7 +1018,7 @@
         <v>427352858</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>44561</v>
       </c>
@@ -1041,7 +1029,7 @@
         <v>438301476</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>44530</v>
       </c>
@@ -1052,7 +1040,7 @@
         <v>441125078</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>44498</v>
       </c>
@@ -1063,7 +1051,7 @@
         <v>588382461</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>44469</v>
       </c>
@@ -1074,7 +1062,7 @@
         <v>338133948</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>44439</v>
       </c>
@@ -1085,7 +1073,7 @@
         <v>226147000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>44407</v>
       </c>
@@ -1096,7 +1084,7 @@
         <v>335423652</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>44377</v>
       </c>
@@ -1107,7 +1095,7 @@
         <v>344810469</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>44344</v>
       </c>
@@ -1118,7 +1106,7 @@
         <v>353419284</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>44316</v>
       </c>
@@ -1129,7 +1117,7 @@
         <v>421280404</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -1140,7 +1128,7 @@
         <v>497455263</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>44253</v>
       </c>
@@ -1151,7 +1139,7 @@
         <v>317775048</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>44225</v>
       </c>
@@ -1162,7 +1150,7 @@
         <v>452699684</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>44196</v>
       </c>
@@ -1173,7 +1161,7 @@
         <v>363962185</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>44165</v>
       </c>
@@ -1184,7 +1172,7 @@
         <v>356802812</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>44134</v>
       </c>
@@ -1195,7 +1183,7 @@
         <v>454176190</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>44104</v>
       </c>
@@ -1206,7 +1194,7 @@
         <v>499179596</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>44074</v>
       </c>
@@ -1217,7 +1205,7 @@
         <v>574314151</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>44043</v>
       </c>
@@ -1228,7 +1216,7 @@
         <v>517670129</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>44012</v>
       </c>
@@ -1239,7 +1227,7 @@
         <v>548043739</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>43980</v>
       </c>
@@ -1250,7 +1238,7 @@
         <v>509636749</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>43951</v>
       </c>
@@ -1261,7 +1249,7 @@
         <v>541538950</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>43921</v>
       </c>
@@ -1272,7 +1260,7 @@
         <v>649513169</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>43889</v>
       </c>
@@ -1283,7 +1271,7 @@
         <v>317634511</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>43861</v>
       </c>
@@ -1294,7 +1282,7 @@
         <v>348100474</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>43830</v>
       </c>
@@ -1305,7 +1293,7 @@
         <v>278225688</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>43798</v>
       </c>
@@ -1316,7 +1304,7 @@
         <v>258577372</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>43769</v>
       </c>
@@ -1327,7 +1315,7 @@
         <v>330152479</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>43738</v>
       </c>
@@ -1338,7 +1326,7 @@
         <v>267509200</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>43707</v>
       </c>
@@ -1349,7 +1337,7 @@
         <v>295174812</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>43677</v>
       </c>
@@ -1360,7 +1348,7 @@
         <v>351074829</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>43644</v>
       </c>
@@ -1371,7 +1359,7 @@
         <v>426428460</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>43616</v>
       </c>
@@ -1382,7 +1370,7 @@
         <v>286821828</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>43585</v>
       </c>
@@ -1393,7 +1381,7 @@
         <v>382184268</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>43553</v>
       </c>
@@ -1404,7 +1392,7 @@
         <v>388172717</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>43524</v>
       </c>
@@ -1415,7 +1403,7 @@
         <v>302243555</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43496</v>
       </c>
@@ -1426,7 +1414,7 @@
         <v>527561443</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -1437,7 +1425,7 @@
         <v>558786249</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>43434</v>
       </c>
@@ -1448,7 +1436,7 @@
         <v>518150415</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>43404</v>
       </c>
@@ -1459,7 +1447,7 @@
         <v>622446235</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>43371</v>
       </c>
@@ -1470,7 +1458,7 @@
         <v>500468912</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>43343</v>
       </c>
@@ -1481,7 +1469,7 @@
         <v>549016789</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>43312</v>
       </c>
@@ -1492,7 +1480,7 @@
         <v>652789437</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>43280</v>
       </c>
@@ -1503,7 +1491,7 @@
         <v>387265765</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>43251</v>
       </c>
@@ -1514,7 +1502,7 @@
         <v>401144183</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>43220</v>
       </c>
@@ -1525,7 +1513,7 @@
         <v>751130388</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>43188</v>
       </c>
@@ -1536,7 +1524,7 @@
         <v>996232472</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>43159</v>
       </c>
@@ -1547,7 +1535,7 @@
         <v>516621991</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>43131</v>
       </c>
@@ -1558,7 +1546,7 @@
         <v>495655736</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>43098</v>
       </c>
@@ -1569,7 +1557,7 @@
         <v>317095666</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>43069</v>
       </c>
@@ -1580,7 +1568,7 @@
         <v>350998773</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>43039</v>
       </c>
@@ -1591,7 +1579,7 @@
         <v>318146400</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>43007</v>
       </c>
@@ -1602,7 +1590,7 @@
         <v>304828762</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>42978</v>
       </c>
@@ -1613,7 +1601,7 @@
         <v>303622863</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>42947</v>
       </c>
@@ -1624,7 +1612,7 @@
         <v>419907787</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>42916</v>
       </c>
@@ -1635,7 +1623,7 @@
         <v>414756797</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>42886</v>
       </c>
@@ -1646,7 +1634,7 @@
         <v>403664937</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>42853</v>
       </c>
@@ -1657,7 +1645,7 @@
         <v>275586171</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>42825</v>
       </c>
@@ -1668,7 +1656,7 @@
         <v>342098632</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>42794</v>
       </c>
@@ -1679,7 +1667,7 @@
         <v>384700625</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>42766</v>
       </c>
@@ -1690,7 +1678,7 @@
         <v>379004804</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>42734</v>
       </c>
@@ -1701,7 +1689,7 @@
         <v>408728358</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>42704</v>
       </c>
@@ -1712,7 +1700,7 @@
         <v>654602125</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>42674</v>
       </c>
@@ -1723,7 +1711,7 @@
         <v>313284563</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>42643</v>
       </c>
@@ -1734,7 +1722,7 @@
         <v>376582063</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>42613</v>
       </c>
@@ -1745,7 +1733,7 @@
         <v>365670913</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>42580</v>
       </c>
@@ -1756,7 +1744,7 @@
         <v>470102115</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>42551</v>
       </c>
@@ -1767,7 +1755,7 @@
         <v>451155054</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>42521</v>
       </c>
@@ -1778,7 +1766,7 @@
         <v>460558248</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>42489</v>
       </c>
@@ -1789,7 +1777,7 @@
         <v>741613866</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>42460</v>
       </c>
@@ -1800,7 +1788,7 @@
         <v>521556260</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>42429</v>
       </c>
@@ -1811,7 +1799,7 @@
         <v>874152635</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>42398</v>
       </c>
@@ -1822,7 +1810,7 @@
         <v>792709100</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>42369</v>
       </c>
@@ -1833,7 +1821,7 @@
         <v>440479804</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>42338</v>
       </c>
@@ -1844,7 +1832,7 @@
         <v>547232906</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>42307</v>
       </c>
@@ -1855,7 +1843,7 @@
         <v>571991600</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>42277</v>
       </c>
@@ -1866,7 +1854,7 @@
         <v>635399810</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>42247</v>
       </c>
@@ -1877,7 +1865,7 @@
         <v>709954512</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>42216</v>
       </c>
@@ -1888,7 +1876,7 @@
         <v>790781334</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>42185</v>
       </c>
@@ -1899,7 +1887,7 @@
         <v>537956820</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>42153</v>
       </c>
@@ -1910,7 +1898,7 @@
         <v>421870709</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>42124</v>
       </c>
@@ -1921,7 +1909,7 @@
         <v>542124478</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>42094</v>
       </c>
@@ -1932,7 +1920,7 @@
         <v>575349997</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>42062</v>
       </c>
@@ -1943,7 +1931,7 @@
         <v>475148609</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>42034</v>
       </c>
@@ -1954,7 +1942,7 @@
         <v>546210559</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>42004</v>
       </c>
@@ -1965,7 +1953,7 @@
         <v>534690249</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>41971</v>
       </c>
@@ -1976,7 +1964,7 @@
         <v>491018048</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>41943</v>
       </c>
@@ -1987,7 +1975,7 @@
         <v>1083643275</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>41912</v>
       </c>
@@ -1998,7 +1986,7 @@
         <v>721093148</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>41880</v>
       </c>
@@ -2009,7 +1997,7 @@
         <v>590824769</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>41851</v>
       </c>
@@ -2020,7 +2008,7 @@
         <v>1028497203</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>41820</v>
       </c>
@@ -2031,7 +2019,7 @@
         <v>863488509</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>41789</v>
       </c>
@@ -2042,7 +2030,7 @@
         <v>1120185748</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>41759</v>
       </c>
@@ -2053,7 +2041,7 @@
         <v>1884871007</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>41729</v>
       </c>
@@ -2064,7 +2052,7 @@
         <v>1256477355</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>41698</v>
       </c>
@@ -2075,7 +2063,7 @@
         <v>1116180547</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>41670</v>
       </c>
@@ -2086,7 +2074,7 @@
         <v>1302177083</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>41639</v>
       </c>
@@ -2097,7 +2085,7 @@
         <v>1517681331</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>41607</v>
       </c>
@@ -2108,7 +2096,7 @@
         <v>1357210260</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>41578</v>
       </c>
@@ -2119,7 +2107,7 @@
         <v>2032636480</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>41547</v>
       </c>
@@ -2130,7 +2118,7 @@
         <v>1583609395</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>41516</v>
       </c>
@@ -2141,7 +2129,7 @@
         <v>1345081098</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>41486</v>
       </c>
@@ -2152,7 +2140,7 @@
         <v>1438674285</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>41453</v>
       </c>
@@ -2163,7 +2151,7 @@
         <v>788385504</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>41425</v>
       </c>
@@ -2174,7 +2162,7 @@
         <v>982135639</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>41394</v>
       </c>
@@ -2185,7 +2173,7 @@
         <v>738538598</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>41361</v>
       </c>
@@ -2196,7 +2184,7 @@
         <v>727179409</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>41333</v>
       </c>
@@ -2207,7 +2195,7 @@
         <v>957658837</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>41305</v>
       </c>
@@ -2218,7 +2206,7 @@
         <v>1675840642</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>41274</v>
       </c>
@@ -2229,7 +2217,7 @@
         <v>1191872373</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>41243</v>
       </c>
@@ -2240,7 +2228,7 @@
         <v>1527484363</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>41213</v>
       </c>
@@ -2251,7 +2239,7 @@
         <v>1101022693</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>41180</v>
       </c>
@@ -2262,7 +2250,7 @@
         <v>1058639882</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>41152</v>
       </c>
@@ -2273,7 +2261,7 @@
         <v>1151948400</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>41121</v>
       </c>
@@ -2284,7 +2272,7 @@
         <v>520227811</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>41089</v>
       </c>
@@ -2295,7 +2283,7 @@
         <v>667978381</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>41060</v>
       </c>
@@ -2312,6 +2300,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100341110151EEDAB4598DCB9BA0E7B852C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="94b06ccbae9ea282aa527c7a79794a42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8256a770-083e-4b7c-814e-c5dff0793361" xmlns:ns4="bac3e513-b8ad-4e95-8656-605fcb31fd33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="977405aaf8d4b9490a99ac7af1caa8c3" ns3:_="" ns4:_="">
     <xsd:import namespace="8256a770-083e-4b7c-814e-c5dff0793361"/>
@@ -2528,15 +2525,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2544,45 +2532,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C432381E-3F38-42CD-8AFC-21F0D07C0092}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8256a770-083e-4b7c-814e-c5dff0793361"/>
-    <ds:schemaRef ds:uri="bac3e513-b8ad-4e95-8656-605fcb31fd33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5803D89-2F9C-4A2B-874F-D0AF530C6BF2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5803D89-2F9C-4A2B-874F-D0AF530C6BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C432381E-3F38-42CD-8AFC-21F0D07C0092}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FA891BA-B399-4D01-A4B6-948F2AC45B04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bac3e513-b8ad-4e95-8656-605fcb31fd33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8256a770-083e-4b7c-814e-c5dff0793361"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FA891BA-B399-4D01-A4B6-948F2AC45B04}"/>
 </file>